--- a/source_data/protocols/NCT03637764_Sanofi_Oncology/Sanofi_NCT03637764_Oncology.xlsx
+++ b/source_data/protocols/NCT03637764_Sanofi_Oncology/Sanofi_NCT03637764_Oncology.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm_data/source_data/protocols/NCT03637764_Sanofi_Oncology/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B3969C9-FEDD-C249-9F72-8A33BCDF56CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8DBA378-5469-E94A-B7F9-2F2B0A89CA3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="17280" firstSheet="19" activeTab="24" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="17280" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3822" uniqueCount="2105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3823" uniqueCount="2105">
   <si>
     <t>Screening</t>
   </si>
@@ -16422,7 +16422,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -16576,14 +16576,14 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="11"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="11" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -16591,11 +16591,14 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="11" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="12" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -16925,8 +16928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2E79CD3-D94C-A14B-9EDC-9C26AFA63552}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16956,11 +16959,11 @@
       <c r="E1" s="24"/>
       <c r="F1" s="24"/>
     </row>
-    <row r="2" spans="1:7" ht="112.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="11" t="s">
         <v>649</v>
       </c>
       <c r="E2" s="24"/>
@@ -17031,11 +17034,13 @@
       <c r="E9" s="24"/>
       <c r="F9" s="24"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A10" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="11"/>
+      <c r="B10" s="64" t="s">
+        <v>649</v>
+      </c>
       <c r="E10" s="24"/>
       <c r="F10" s="24"/>
     </row>
@@ -25324,14 +25329,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01EE4FB2-D5D8-4E41-A4BE-2486AAC7180A}">
   <dimension ref="A1:B209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.83203125" style="56"/>
-    <col min="2" max="2" width="145.6640625" style="63" customWidth="1"/>
+    <col min="2" max="2" width="145.6640625" style="58" customWidth="1"/>
     <col min="3" max="16384" width="8.83203125" style="56"/>
   </cols>
   <sheetData>
@@ -25339,7 +25344,7 @@
       <c r="A1" s="55" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="57" t="s">
         <v>97</v>
       </c>
     </row>
@@ -25347,15 +25352,15 @@
       <c r="A2" s="56" t="s">
         <v>275</v>
       </c>
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="58" t="s">
         <v>1612</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A3" s="56" t="s">
         <v>276</v>
       </c>
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="58" t="s">
         <v>1613</v>
       </c>
     </row>
@@ -25363,7 +25368,7 @@
       <c r="A4" s="56" t="s">
         <v>277</v>
       </c>
-      <c r="B4" s="63" t="s">
+      <c r="B4" s="58" t="s">
         <v>1614</v>
       </c>
     </row>
@@ -25371,7 +25376,7 @@
       <c r="A5" s="56" t="s">
         <v>278</v>
       </c>
-      <c r="B5" s="63" t="s">
+      <c r="B5" s="58" t="s">
         <v>1615</v>
       </c>
     </row>
@@ -25379,15 +25384,15 @@
       <c r="A6" s="56" t="s">
         <v>279</v>
       </c>
-      <c r="B6" s="63" t="s">
+      <c r="B6" s="58" t="s">
         <v>1616</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="144" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="96" x14ac:dyDescent="0.2">
       <c r="A7" s="56" t="s">
         <v>280</v>
       </c>
-      <c r="B7" s="63" t="s">
+      <c r="B7" s="58" t="s">
         <v>1617</v>
       </c>
     </row>
@@ -25396,11 +25401,11 @@
         <v>281</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="208" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" ht="128" x14ac:dyDescent="0.2">
       <c r="A9" s="56" t="s">
         <v>282</v>
       </c>
-      <c r="B9" s="63" t="s">
+      <c r="B9" s="58" t="s">
         <v>1618</v>
       </c>
     </row>
@@ -25408,7 +25413,7 @@
       <c r="A10" s="56" t="s">
         <v>283</v>
       </c>
-      <c r="B10" s="63" t="s">
+      <c r="B10" s="58" t="s">
         <v>1619</v>
       </c>
     </row>
@@ -25416,7 +25421,7 @@
       <c r="A11" s="56" t="s">
         <v>284</v>
       </c>
-      <c r="B11" s="63" t="s">
+      <c r="B11" s="58" t="s">
         <v>1620</v>
       </c>
     </row>
@@ -25424,7 +25429,7 @@
       <c r="A12" s="56" t="s">
         <v>285</v>
       </c>
-      <c r="B12" s="63" t="s">
+      <c r="B12" s="58" t="s">
         <v>1621</v>
       </c>
     </row>
@@ -25432,15 +25437,15 @@
       <c r="A13" s="56" t="s">
         <v>286</v>
       </c>
-      <c r="B13" s="63" t="s">
+      <c r="B13" s="58" t="s">
         <v>1622</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="128" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A14" s="56" t="s">
         <v>287</v>
       </c>
-      <c r="B14" s="63" t="s">
+      <c r="B14" s="58" t="s">
         <v>1623</v>
       </c>
     </row>
@@ -25448,7 +25453,7 @@
       <c r="A15" s="56" t="s">
         <v>288</v>
       </c>
-      <c r="B15" s="63" t="s">
+      <c r="B15" s="58" t="s">
         <v>1624</v>
       </c>
     </row>
@@ -25456,7 +25461,7 @@
       <c r="A16" s="56" t="s">
         <v>289</v>
       </c>
-      <c r="B16" s="63" t="s">
+      <c r="B16" s="58" t="s">
         <v>1625</v>
       </c>
     </row>
@@ -25464,7 +25469,7 @@
       <c r="A17" s="56" t="s">
         <v>290</v>
       </c>
-      <c r="B17" s="63" t="s">
+      <c r="B17" s="58" t="s">
         <v>1626</v>
       </c>
     </row>
@@ -25472,7 +25477,7 @@
       <c r="A18" s="56" t="s">
         <v>291</v>
       </c>
-      <c r="B18" s="63" t="s">
+      <c r="B18" s="58" t="s">
         <v>1627</v>
       </c>
     </row>
@@ -25481,27 +25486,27 @@
         <v>292</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="208" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" ht="128" x14ac:dyDescent="0.2">
       <c r="A20" s="56" t="s">
         <v>293</v>
       </c>
-      <c r="B20" s="63" t="s">
+      <c r="B20" s="58" t="s">
         <v>1628</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" ht="350" x14ac:dyDescent="0.2">
       <c r="A21" s="56" t="s">
         <v>294</v>
       </c>
-      <c r="B21" s="63" t="s">
+      <c r="B21" s="58" t="s">
         <v>1629</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="240" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" ht="144" x14ac:dyDescent="0.2">
       <c r="A22" s="56" t="s">
         <v>295</v>
       </c>
-      <c r="B22" s="63" t="s">
+      <c r="B22" s="58" t="s">
         <v>1630</v>
       </c>
     </row>
@@ -25509,7 +25514,7 @@
       <c r="A23" s="56" t="s">
         <v>296</v>
       </c>
-      <c r="B23" s="63" t="s">
+      <c r="B23" s="58" t="s">
         <v>1631</v>
       </c>
     </row>
@@ -25523,59 +25528,59 @@
         <v>298</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" ht="365" x14ac:dyDescent="0.2">
       <c r="A26" s="56" t="s">
         <v>299</v>
       </c>
-      <c r="B26" s="63" t="s">
+      <c r="B26" s="58" t="s">
         <v>1632</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="395" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" ht="240" x14ac:dyDescent="0.2">
       <c r="A27" s="56" t="s">
         <v>300</v>
       </c>
-      <c r="B27" s="63" t="s">
+      <c r="B27" s="58" t="s">
         <v>1633</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" ht="350" x14ac:dyDescent="0.2">
       <c r="A28" s="56" t="s">
         <v>301</v>
       </c>
-      <c r="B28" s="63" t="s">
+      <c r="B28" s="58" t="s">
         <v>1634</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" ht="304" x14ac:dyDescent="0.2">
       <c r="A29" s="56" t="s">
         <v>302</v>
       </c>
-      <c r="B29" s="63" t="s">
+      <c r="B29" s="58" t="s">
         <v>1635</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="160" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A30" s="56" t="s">
         <v>303</v>
       </c>
-      <c r="B30" s="63" t="s">
+      <c r="B30" s="58" t="s">
         <v>1636</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="288" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" ht="160" x14ac:dyDescent="0.2">
       <c r="A31" s="56" t="s">
         <v>304</v>
       </c>
-      <c r="B31" s="63" t="s">
+      <c r="B31" s="58" t="s">
         <v>1637</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="80" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A32" s="56" t="s">
         <v>305</v>
       </c>
-      <c r="B32" s="63" t="s">
+      <c r="B32" s="58" t="s">
         <v>1638</v>
       </c>
     </row>
@@ -25584,27 +25589,27 @@
         <v>306</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="304" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" ht="192" x14ac:dyDescent="0.2">
       <c r="A34" s="56" t="s">
         <v>307</v>
       </c>
-      <c r="B34" s="63" t="s">
+      <c r="B34" s="58" t="s">
         <v>1639</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="240" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" ht="144" x14ac:dyDescent="0.2">
       <c r="A35" s="56" t="s">
         <v>308</v>
       </c>
-      <c r="B35" s="63" t="s">
+      <c r="B35" s="58" t="s">
         <v>1640</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="96" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A36" s="56" t="s">
         <v>309</v>
       </c>
-      <c r="B36" s="63" t="s">
+      <c r="B36" s="58" t="s">
         <v>1641</v>
       </c>
     </row>
@@ -25612,15 +25617,15 @@
       <c r="A37" s="56" t="s">
         <v>310</v>
       </c>
-      <c r="B37" s="63" t="s">
+      <c r="B37" s="58" t="s">
         <v>1642</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="80" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A38" s="56" t="s">
         <v>311</v>
       </c>
-      <c r="B38" s="63" t="s">
+      <c r="B38" s="58" t="s">
         <v>1643</v>
       </c>
     </row>
@@ -25628,7 +25633,7 @@
       <c r="A39" s="56" t="s">
         <v>312</v>
       </c>
-      <c r="B39" s="63" t="s">
+      <c r="B39" s="58" t="s">
         <v>1644</v>
       </c>
     </row>
@@ -25636,15 +25641,15 @@
       <c r="A40" s="56" t="s">
         <v>313</v>
       </c>
-      <c r="B40" s="63" t="s">
+      <c r="B40" s="58" t="s">
         <v>1645</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A41" s="56" t="s">
         <v>314</v>
       </c>
-      <c r="B41" s="63" t="s">
+      <c r="B41" s="58" t="s">
         <v>1646</v>
       </c>
     </row>
@@ -25657,7 +25662,7 @@
       <c r="A43" s="56" t="s">
         <v>316</v>
       </c>
-      <c r="B43" s="63" t="s">
+      <c r="B43" s="58" t="s">
         <v>1647</v>
       </c>
     </row>
@@ -25665,47 +25670,47 @@
       <c r="A44" s="56" t="s">
         <v>317</v>
       </c>
-      <c r="B44" s="63" t="s">
+      <c r="B44" s="58" t="s">
         <v>1648</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" ht="288" x14ac:dyDescent="0.2">
       <c r="A45" s="56" t="s">
         <v>318</v>
       </c>
-      <c r="B45" s="63" t="s">
+      <c r="B45" s="58" t="s">
         <v>1649</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="208" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" ht="128" x14ac:dyDescent="0.2">
       <c r="A46" s="56" t="s">
         <v>319</v>
       </c>
-      <c r="B46" s="63" t="s">
+      <c r="B46" s="58" t="s">
         <v>1650</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="365" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" ht="224" x14ac:dyDescent="0.2">
       <c r="A47" s="56" t="s">
         <v>320</v>
       </c>
-      <c r="B47" s="63" t="s">
+      <c r="B47" s="58" t="s">
         <v>1651</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="96" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A48" s="56" t="s">
         <v>321</v>
       </c>
-      <c r="B48" s="63" t="s">
+      <c r="B48" s="58" t="s">
         <v>1652</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="96" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A49" s="56" t="s">
         <v>322</v>
       </c>
-      <c r="B49" s="63" t="s">
+      <c r="B49" s="58" t="s">
         <v>1653</v>
       </c>
     </row>
@@ -25713,31 +25718,31 @@
       <c r="A50" s="56" t="s">
         <v>323</v>
       </c>
-      <c r="B50" s="63" t="s">
+      <c r="B50" s="58" t="s">
         <v>1654</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="80" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A51" s="56" t="s">
         <v>324</v>
       </c>
-      <c r="B51" s="63" t="s">
+      <c r="B51" s="58" t="s">
         <v>1655</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" ht="380" x14ac:dyDescent="0.2">
       <c r="A52" s="56" t="s">
         <v>325</v>
       </c>
-      <c r="B52" s="63" t="s">
+      <c r="B52" s="58" t="s">
         <v>1656</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="272" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" ht="192" x14ac:dyDescent="0.2">
       <c r="A53" s="56" t="s">
         <v>326</v>
       </c>
-      <c r="B53" s="63" t="s">
+      <c r="B53" s="58" t="s">
         <v>1657</v>
       </c>
     </row>
@@ -25745,23 +25750,23 @@
       <c r="A54" s="56" t="s">
         <v>327</v>
       </c>
-      <c r="B54" s="63" t="s">
+      <c r="B54" s="58" t="s">
         <v>1658</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="176" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" ht="96" x14ac:dyDescent="0.2">
       <c r="A55" s="56" t="s">
         <v>328</v>
       </c>
-      <c r="B55" s="63" t="s">
+      <c r="B55" s="58" t="s">
         <v>1659</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A56" s="56" t="s">
         <v>329</v>
       </c>
-      <c r="B56" s="63" t="s">
+      <c r="B56" s="58" t="s">
         <v>1660</v>
       </c>
     </row>
@@ -25769,7 +25774,7 @@
       <c r="A57" s="56" t="s">
         <v>330</v>
       </c>
-      <c r="B57" s="63" t="s">
+      <c r="B57" s="58" t="s">
         <v>1661</v>
       </c>
     </row>
@@ -25777,23 +25782,23 @@
       <c r="A58" s="56" t="s">
         <v>331</v>
       </c>
-      <c r="B58" s="63" t="s">
+      <c r="B58" s="58" t="s">
         <v>1662</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="128" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A59" s="56" t="s">
         <v>332</v>
       </c>
-      <c r="B59" s="63" t="s">
+      <c r="B59" s="58" t="s">
         <v>1663</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="112" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A60" s="56" t="s">
         <v>333</v>
       </c>
-      <c r="B60" s="63" t="s">
+      <c r="B60" s="58" t="s">
         <v>1664</v>
       </c>
     </row>
@@ -25801,7 +25806,7 @@
       <c r="A61" s="56" t="s">
         <v>334</v>
       </c>
-      <c r="B61" s="63" t="s">
+      <c r="B61" s="58" t="s">
         <v>1665</v>
       </c>
     </row>
@@ -25810,19 +25815,19 @@
         <v>335</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="192" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" ht="128" x14ac:dyDescent="0.2">
       <c r="A63" s="56" t="s">
         <v>336</v>
       </c>
-      <c r="B63" s="63" t="s">
+      <c r="B63" s="58" t="s">
         <v>1666</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" ht="304" x14ac:dyDescent="0.2">
       <c r="A64" s="56" t="s">
         <v>337</v>
       </c>
-      <c r="B64" s="63" t="s">
+      <c r="B64" s="58" t="s">
         <v>1667</v>
       </c>
     </row>
@@ -25830,7 +25835,7 @@
       <c r="A65" s="56" t="s">
         <v>338</v>
       </c>
-      <c r="B65" s="63" t="s">
+      <c r="B65" s="58" t="s">
         <v>1668</v>
       </c>
     </row>
@@ -25838,23 +25843,23 @@
       <c r="A66" s="56" t="s">
         <v>339</v>
       </c>
-      <c r="B66" s="63" t="s">
+      <c r="B66" s="58" t="s">
         <v>1669</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="144" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A67" s="56" t="s">
         <v>340</v>
       </c>
-      <c r="B67" s="63" t="s">
+      <c r="B67" s="58" t="s">
         <v>1670</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A68" s="56" t="s">
         <v>341</v>
       </c>
-      <c r="B68" s="63" t="s">
+      <c r="B68" s="58" t="s">
         <v>1671</v>
       </c>
     </row>
@@ -25867,55 +25872,55 @@
       <c r="A70" s="56" t="s">
         <v>343</v>
       </c>
-      <c r="B70" s="63" t="s">
+      <c r="B70" s="58" t="s">
         <v>1672</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="128" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A71" s="56" t="s">
         <v>344</v>
       </c>
-      <c r="B71" s="63" t="s">
+      <c r="B71" s="58" t="s">
         <v>1673</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" ht="240" x14ac:dyDescent="0.2">
       <c r="A72" s="56" t="s">
         <v>345</v>
       </c>
-      <c r="B72" s="63" t="s">
+      <c r="B72" s="58" t="s">
         <v>1674</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="240" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" ht="160" x14ac:dyDescent="0.2">
       <c r="A73" s="56" t="s">
         <v>346</v>
       </c>
-      <c r="B73" s="63" t="s">
+      <c r="B73" s="58" t="s">
         <v>1675</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A74" s="56" t="s">
         <v>347</v>
       </c>
-      <c r="B74" s="63" t="s">
+      <c r="B74" s="58" t="s">
         <v>1676</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="256" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" ht="160" x14ac:dyDescent="0.2">
       <c r="A75" s="56" t="s">
         <v>348</v>
       </c>
-      <c r="B75" s="63" t="s">
+      <c r="B75" s="58" t="s">
         <v>1677</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="272" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" ht="176" x14ac:dyDescent="0.2">
       <c r="A76" s="56" t="s">
         <v>349</v>
       </c>
-      <c r="B76" s="63" t="s">
+      <c r="B76" s="58" t="s">
         <v>1678</v>
       </c>
     </row>
@@ -25923,47 +25928,47 @@
       <c r="A77" s="56" t="s">
         <v>350</v>
       </c>
-      <c r="B77" s="63" t="s">
+      <c r="B77" s="58" t="s">
         <v>1598</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="144" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" ht="96" x14ac:dyDescent="0.2">
       <c r="A78" s="56" t="s">
         <v>430</v>
       </c>
-      <c r="B78" s="63" t="s">
+      <c r="B78" s="58" t="s">
         <v>1679</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="176" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" ht="128" x14ac:dyDescent="0.2">
       <c r="A79" s="56" t="s">
         <v>431</v>
       </c>
-      <c r="B79" s="63" t="s">
+      <c r="B79" s="58" t="s">
         <v>1680</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="128" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" ht="96" x14ac:dyDescent="0.2">
       <c r="A80" s="56" t="s">
         <v>432</v>
       </c>
-      <c r="B80" s="63" t="s">
+      <c r="B80" s="58" t="s">
         <v>1681</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" ht="288" x14ac:dyDescent="0.2">
       <c r="A81" s="56" t="s">
         <v>433</v>
       </c>
-      <c r="B81" s="63" t="s">
+      <c r="B81" s="58" t="s">
         <v>1682</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="96" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A82" s="56" t="s">
         <v>434</v>
       </c>
-      <c r="B82" s="63" t="s">
+      <c r="B82" s="58" t="s">
         <v>1683</v>
       </c>
     </row>
@@ -25971,71 +25976,71 @@
       <c r="A83" s="56" t="s">
         <v>435</v>
       </c>
-      <c r="B83" s="63" t="s">
+      <c r="B83" s="58" t="s">
         <v>1684</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="192" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" ht="128" x14ac:dyDescent="0.2">
       <c r="A84" s="56" t="s">
         <v>436</v>
       </c>
-      <c r="B84" s="63" t="s">
+      <c r="B84" s="58" t="s">
         <v>1685</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A85" s="56" t="s">
         <v>437</v>
       </c>
-      <c r="B85" s="63" t="s">
+      <c r="B85" s="58" t="s">
         <v>1686</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="80" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A86" s="56" t="s">
         <v>438</v>
       </c>
-      <c r="B86" s="63" t="s">
+      <c r="B86" s="58" t="s">
         <v>1687</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="304" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" ht="192" x14ac:dyDescent="0.2">
       <c r="A87" s="56" t="s">
         <v>1688</v>
       </c>
-      <c r="B87" s="63" t="s">
+      <c r="B87" s="58" t="s">
         <v>1689</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="160" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" ht="112" x14ac:dyDescent="0.2">
       <c r="A88" s="56" t="s">
         <v>1690</v>
       </c>
-      <c r="B88" s="63" t="s">
+      <c r="B88" s="58" t="s">
         <v>1691</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="192" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2" ht="128" x14ac:dyDescent="0.2">
       <c r="A89" s="56" t="s">
         <v>1692</v>
       </c>
-      <c r="B89" s="63" t="s">
+      <c r="B89" s="58" t="s">
         <v>1693</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="80" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A90" s="56" t="s">
         <v>1694</v>
       </c>
-      <c r="B90" s="63" t="s">
+      <c r="B90" s="58" t="s">
         <v>1695</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="176" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2" ht="160" x14ac:dyDescent="0.2">
       <c r="A91" s="56" t="s">
         <v>1696</v>
       </c>
-      <c r="B91" s="63" t="s">
+      <c r="B91" s="58" t="s">
         <v>1697</v>
       </c>
     </row>
@@ -26044,27 +26049,27 @@
         <v>1698</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="112" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A93" s="56" t="s">
         <v>1699</v>
       </c>
-      <c r="B93" s="63" t="s">
+      <c r="B93" s="58" t="s">
         <v>1700</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="56" t="s">
         <v>1701</v>
       </c>
-      <c r="B94" s="63" t="s">
+      <c r="B94" s="58" t="s">
         <v>1702</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="56" t="s">
         <v>1703</v>
       </c>
-      <c r="B95" s="63" t="s">
+      <c r="B95" s="58" t="s">
         <v>1704</v>
       </c>
     </row>
@@ -26077,55 +26082,55 @@
       <c r="A97" s="56" t="s">
         <v>1706</v>
       </c>
-      <c r="B97" s="63" t="s">
+      <c r="B97" s="58" t="s">
         <v>1707</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="56" t="s">
         <v>1708</v>
       </c>
-      <c r="B98" s="63" t="s">
+      <c r="B98" s="58" t="s">
         <v>1709</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2" ht="380" x14ac:dyDescent="0.2">
       <c r="A99" s="56" t="s">
         <v>1710</v>
       </c>
-      <c r="B99" s="63" t="s">
+      <c r="B99" s="58" t="s">
         <v>1711</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="256" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2" ht="208" x14ac:dyDescent="0.2">
       <c r="A100" s="56" t="s">
         <v>1712</v>
       </c>
-      <c r="B100" s="63" t="s">
+      <c r="B100" s="58" t="s">
         <v>1713</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="240" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2" ht="160" x14ac:dyDescent="0.2">
       <c r="A101" s="56" t="s">
         <v>1714</v>
       </c>
-      <c r="B101" s="63" t="s">
+      <c r="B101" s="58" t="s">
         <v>1715</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="144" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2" ht="96" x14ac:dyDescent="0.2">
       <c r="A102" s="56" t="s">
         <v>1716</v>
       </c>
-      <c r="B102" s="63" t="s">
+      <c r="B102" s="58" t="s">
         <v>1717</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="160" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2" ht="112" x14ac:dyDescent="0.2">
       <c r="A103" s="56" t="s">
         <v>1718</v>
       </c>
-      <c r="B103" s="63" t="s">
+      <c r="B103" s="58" t="s">
         <v>1719</v>
       </c>
     </row>
@@ -26133,23 +26138,23 @@
       <c r="A104" s="56" t="s">
         <v>1720</v>
       </c>
-      <c r="B104" s="63" t="s">
+      <c r="B104" s="58" t="s">
         <v>1721</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="96" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A105" s="56" t="s">
         <v>1722</v>
       </c>
-      <c r="B105" s="63" t="s">
+      <c r="B105" s="58" t="s">
         <v>1723</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A106" s="56" t="s">
         <v>1724</v>
       </c>
-      <c r="B106" s="63" t="s">
+      <c r="B106" s="58" t="s">
         <v>1725</v>
       </c>
     </row>
@@ -26157,7 +26162,7 @@
       <c r="A107" s="56" t="s">
         <v>1726</v>
       </c>
-      <c r="B107" s="63" t="s">
+      <c r="B107" s="58" t="s">
         <v>1727</v>
       </c>
     </row>
@@ -26165,15 +26170,15 @@
       <c r="A108" s="56" t="s">
         <v>1728</v>
       </c>
-      <c r="B108" s="63" t="s">
+      <c r="B108" s="58" t="s">
         <v>1729</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="208" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2" ht="144" x14ac:dyDescent="0.2">
       <c r="A109" s="56" t="s">
         <v>1730</v>
       </c>
-      <c r="B109" s="63" t="s">
+      <c r="B109" s="58" t="s">
         <v>1731</v>
       </c>
     </row>
@@ -26181,7 +26186,7 @@
       <c r="A110" s="56" t="s">
         <v>1732</v>
       </c>
-      <c r="B110" s="63" t="s">
+      <c r="B110" s="58" t="s">
         <v>1733</v>
       </c>
     </row>
@@ -26189,7 +26194,7 @@
       <c r="A111" s="56" t="s">
         <v>1734</v>
       </c>
-      <c r="B111" s="63" t="s">
+      <c r="B111" s="58" t="s">
         <v>1735</v>
       </c>
     </row>
@@ -26197,7 +26202,7 @@
       <c r="A112" s="56" t="s">
         <v>1736</v>
       </c>
-      <c r="B112" s="63" t="s">
+      <c r="B112" s="58" t="s">
         <v>1737</v>
       </c>
     </row>
@@ -26205,47 +26210,47 @@
       <c r="A113" s="56" t="s">
         <v>1738</v>
       </c>
-      <c r="B113" s="63" t="s">
+      <c r="B113" s="58" t="s">
         <v>1739</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="80" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A114" s="56" t="s">
         <v>1740</v>
       </c>
-      <c r="B114" s="63" t="s">
+      <c r="B114" s="58" t="s">
         <v>1741</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" s="56" t="s">
         <v>1742</v>
       </c>
-      <c r="B115" s="63" t="s">
+      <c r="B115" s="58" t="s">
         <v>1743</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A116" s="56" t="s">
         <v>1744</v>
       </c>
-      <c r="B116" s="63" t="s">
+      <c r="B116" s="58" t="s">
         <v>1745</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="112" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A117" s="56" t="s">
         <v>1746</v>
       </c>
-      <c r="B117" s="63" t="s">
+      <c r="B117" s="58" t="s">
         <v>1747</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="112" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A118" s="56" t="s">
         <v>1748</v>
       </c>
-      <c r="B118" s="63" t="s">
+      <c r="B118" s="58" t="s">
         <v>1749</v>
       </c>
     </row>
@@ -26259,99 +26264,99 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:2" ht="395" x14ac:dyDescent="0.2">
       <c r="A121" s="56" t="s">
         <v>1752</v>
       </c>
-      <c r="B121" s="63" t="s">
+      <c r="B121" s="58" t="s">
         <v>1753</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="365" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:2" ht="256" x14ac:dyDescent="0.2">
       <c r="A122" s="56" t="s">
         <v>1754</v>
       </c>
-      <c r="B122" s="63" t="s">
+      <c r="B122" s="58" t="s">
         <v>1755</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="176" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:2" ht="128" x14ac:dyDescent="0.2">
       <c r="A123" s="56" t="s">
         <v>1756</v>
       </c>
-      <c r="B123" s="63" t="s">
+      <c r="B123" s="58" t="s">
         <v>1757</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="176" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:2" ht="96" x14ac:dyDescent="0.2">
       <c r="A124" s="56" t="s">
         <v>1758</v>
       </c>
-      <c r="B124" s="63" t="s">
+      <c r="B124" s="58" t="s">
         <v>1759</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="208" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:2" ht="128" x14ac:dyDescent="0.2">
       <c r="A125" s="56" t="s">
         <v>1760</v>
       </c>
-      <c r="B125" s="63" t="s">
+      <c r="B125" s="58" t="s">
         <v>1761</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="335" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:2" ht="208" x14ac:dyDescent="0.2">
       <c r="A126" s="56" t="s">
         <v>1762</v>
       </c>
-      <c r="B126" s="63" t="s">
+      <c r="B126" s="58" t="s">
         <v>1763</v>
       </c>
     </row>
-    <row r="127" spans="1:2" ht="224" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:2" ht="128" x14ac:dyDescent="0.2">
       <c r="A127" s="56" t="s">
         <v>1764</v>
       </c>
-      <c r="B127" s="63" t="s">
+      <c r="B127" s="58" t="s">
         <v>1765</v>
       </c>
     </row>
-    <row r="128" spans="1:2" ht="224" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:2" ht="144" x14ac:dyDescent="0.2">
       <c r="A128" s="56" t="s">
         <v>1766</v>
       </c>
-      <c r="B128" s="63" t="s">
+      <c r="B128" s="58" t="s">
         <v>1767</v>
       </c>
     </row>
-    <row r="129" spans="1:2" ht="224" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:2" ht="144" x14ac:dyDescent="0.2">
       <c r="A129" s="56" t="s">
         <v>1768</v>
       </c>
-      <c r="B129" s="63" t="s">
+      <c r="B129" s="58" t="s">
         <v>1769</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="128" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:2" ht="96" x14ac:dyDescent="0.2">
       <c r="A130" s="56" t="s">
         <v>1770</v>
       </c>
-      <c r="B130" s="63" t="s">
+      <c r="B130" s="58" t="s">
         <v>1771</v>
       </c>
     </row>
-    <row r="131" spans="1:2" ht="288" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:2" ht="176" x14ac:dyDescent="0.2">
       <c r="A131" s="56" t="s">
         <v>1772</v>
       </c>
-      <c r="B131" s="63" t="s">
+      <c r="B131" s="58" t="s">
         <v>1773</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="208" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:2" ht="144" x14ac:dyDescent="0.2">
       <c r="A132" s="56" t="s">
         <v>1774</v>
       </c>
-      <c r="B132" s="63" t="s">
+      <c r="B132" s="58" t="s">
         <v>1775</v>
       </c>
     </row>
@@ -26359,47 +26364,47 @@
       <c r="A133" s="56" t="s">
         <v>1776</v>
       </c>
-      <c r="B133" s="63" t="s">
+      <c r="B133" s="58" t="s">
         <v>1777</v>
       </c>
     </row>
-    <row r="134" spans="1:2" ht="128" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:2" ht="112" x14ac:dyDescent="0.2">
       <c r="A134" s="56" t="s">
         <v>1778</v>
       </c>
-      <c r="B134" s="63" t="s">
+      <c r="B134" s="58" t="s">
         <v>1779</v>
       </c>
     </row>
-    <row r="135" spans="1:2" ht="350" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:2" ht="240" x14ac:dyDescent="0.2">
       <c r="A135" s="56" t="s">
         <v>1780</v>
       </c>
-      <c r="B135" s="63" t="s">
+      <c r="B135" s="58" t="s">
         <v>1781</v>
       </c>
     </row>
-    <row r="136" spans="1:2" ht="176" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:2" ht="128" x14ac:dyDescent="0.2">
       <c r="A136" s="56" t="s">
         <v>1782</v>
       </c>
-      <c r="B136" s="63" t="s">
+      <c r="B136" s="58" t="s">
         <v>1783</v>
       </c>
     </row>
-    <row r="137" spans="1:2" ht="240" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:2" ht="144" x14ac:dyDescent="0.2">
       <c r="A137" s="56" t="s">
         <v>1784</v>
       </c>
-      <c r="B137" s="63" t="s">
+      <c r="B137" s="58" t="s">
         <v>1785</v>
       </c>
     </row>
-    <row r="138" spans="1:2" ht="128" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:2" ht="96" x14ac:dyDescent="0.2">
       <c r="A138" s="56" t="s">
         <v>1786</v>
       </c>
-      <c r="B138" s="63" t="s">
+      <c r="B138" s="58" t="s">
         <v>1787</v>
       </c>
     </row>
@@ -26412,111 +26417,111 @@
       <c r="A140" s="56" t="s">
         <v>1789</v>
       </c>
-      <c r="B140" s="63" t="s">
+      <c r="B140" s="58" t="s">
         <v>1790</v>
       </c>
     </row>
-    <row r="141" spans="1:2" ht="288" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:2" ht="224" x14ac:dyDescent="0.2">
       <c r="A141" s="56" t="s">
         <v>1791</v>
       </c>
-      <c r="B141" s="63" t="s">
+      <c r="B141" s="58" t="s">
         <v>1792</v>
       </c>
     </row>
-    <row r="142" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A142" s="56" t="s">
         <v>1793</v>
       </c>
-      <c r="B142" s="63" t="s">
+      <c r="B142" s="58" t="s">
         <v>1794</v>
       </c>
     </row>
-    <row r="143" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A143" s="56" t="s">
         <v>1795</v>
       </c>
-      <c r="B143" s="63" t="s">
+      <c r="B143" s="58" t="s">
         <v>1796</v>
       </c>
     </row>
-    <row r="144" spans="1:2" ht="80" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A144" s="56" t="s">
         <v>1797</v>
       </c>
-      <c r="B144" s="63" t="s">
+      <c r="B144" s="58" t="s">
         <v>1798</v>
       </c>
     </row>
-    <row r="145" spans="1:2" ht="80" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A145" s="56" t="s">
         <v>1799</v>
       </c>
-      <c r="B145" s="63" t="s">
+      <c r="B145" s="58" t="s">
         <v>1800</v>
       </c>
     </row>
-    <row r="146" spans="1:2" ht="96" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A146" s="56" t="s">
         <v>1801</v>
       </c>
-      <c r="B146" s="63" t="s">
+      <c r="B146" s="58" t="s">
         <v>1802</v>
       </c>
     </row>
-    <row r="147" spans="1:2" ht="272" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:2" ht="240" x14ac:dyDescent="0.2">
       <c r="A147" s="56" t="s">
         <v>1803</v>
       </c>
-      <c r="B147" s="63" t="s">
+      <c r="B147" s="58" t="s">
         <v>1804</v>
       </c>
     </row>
-    <row r="148" spans="1:2" ht="112" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:2" ht="96" x14ac:dyDescent="0.2">
       <c r="A148" s="56" t="s">
         <v>1805</v>
       </c>
-      <c r="B148" s="63" t="s">
+      <c r="B148" s="58" t="s">
         <v>1806</v>
       </c>
     </row>
-    <row r="149" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A149" s="56" t="s">
         <v>1807</v>
       </c>
-      <c r="B149" s="63" t="s">
+      <c r="B149" s="58" t="s">
         <v>1808</v>
       </c>
     </row>
-    <row r="150" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:2" ht="288" x14ac:dyDescent="0.2">
       <c r="A150" s="56" t="s">
         <v>1809</v>
       </c>
-      <c r="B150" s="63" t="s">
+      <c r="B150" s="58" t="s">
         <v>1810</v>
       </c>
     </row>
-    <row r="151" spans="1:2" ht="192" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:2" ht="128" x14ac:dyDescent="0.2">
       <c r="A151" s="56" t="s">
         <v>1811</v>
       </c>
-      <c r="B151" s="63" t="s">
+      <c r="B151" s="58" t="s">
         <v>1812</v>
       </c>
     </row>
-    <row r="152" spans="1:2" ht="320" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:2" ht="192" x14ac:dyDescent="0.2">
       <c r="A152" s="56" t="s">
         <v>1813</v>
       </c>
-      <c r="B152" s="63" t="s">
+      <c r="B152" s="58" t="s">
         <v>1814</v>
       </c>
     </row>
-    <row r="153" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:2" ht="380" x14ac:dyDescent="0.2">
       <c r="A153" s="56" t="s">
         <v>1815</v>
       </c>
-      <c r="B153" s="63" t="s">
+      <c r="B153" s="58" t="s">
         <v>1816</v>
       </c>
     </row>
@@ -26524,7 +26529,7 @@
       <c r="A154" s="56" t="s">
         <v>1817</v>
       </c>
-      <c r="B154" s="63" t="s">
+      <c r="B154" s="58" t="s">
         <v>1818</v>
       </c>
     </row>
@@ -26532,23 +26537,23 @@
       <c r="A155" s="56" t="s">
         <v>1819</v>
       </c>
-      <c r="B155" s="63" t="s">
+      <c r="B155" s="58" t="s">
         <v>1820</v>
       </c>
     </row>
-    <row r="156" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A156" s="56" t="s">
         <v>1821</v>
       </c>
-      <c r="B156" s="63" t="s">
+      <c r="B156" s="58" t="s">
         <v>1822</v>
       </c>
     </row>
-    <row r="157" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A157" s="56" t="s">
         <v>1823</v>
       </c>
-      <c r="B157" s="63" t="s">
+      <c r="B157" s="58" t="s">
         <v>1824</v>
       </c>
     </row>
@@ -26556,7 +26561,7 @@
       <c r="A158" s="56" t="s">
         <v>1825</v>
       </c>
-      <c r="B158" s="63" t="s">
+      <c r="B158" s="58" t="s">
         <v>1826</v>
       </c>
     </row>
@@ -26564,7 +26569,7 @@
       <c r="A159" s="56" t="s">
         <v>1827</v>
       </c>
-      <c r="B159" s="63" t="s">
+      <c r="B159" s="58" t="s">
         <v>1828</v>
       </c>
     </row>
@@ -26572,7 +26577,7 @@
       <c r="A160" s="56" t="s">
         <v>1829</v>
       </c>
-      <c r="B160" s="63" t="s">
+      <c r="B160" s="58" t="s">
         <v>1830</v>
       </c>
     </row>
@@ -26580,7 +26585,7 @@
       <c r="A161" s="56" t="s">
         <v>1831</v>
       </c>
-      <c r="B161" s="63" t="s">
+      <c r="B161" s="58" t="s">
         <v>1832</v>
       </c>
     </row>
@@ -26588,7 +26593,7 @@
       <c r="A162" s="56" t="s">
         <v>1833</v>
       </c>
-      <c r="B162" s="63" t="s">
+      <c r="B162" s="58" t="s">
         <v>1834</v>
       </c>
     </row>
@@ -26596,7 +26601,7 @@
       <c r="A163" s="56" t="s">
         <v>1835</v>
       </c>
-      <c r="B163" s="63" t="s">
+      <c r="B163" s="58" t="s">
         <v>1832</v>
       </c>
     </row>
@@ -26604,7 +26609,7 @@
       <c r="A164" s="56" t="s">
         <v>1836</v>
       </c>
-      <c r="B164" s="63" t="s">
+      <c r="B164" s="58" t="s">
         <v>1837</v>
       </c>
     </row>
@@ -26612,23 +26617,23 @@
       <c r="A165" s="56" t="s">
         <v>1838</v>
       </c>
-      <c r="B165" s="63" t="s">
+      <c r="B165" s="58" t="s">
         <v>1839</v>
       </c>
     </row>
-    <row r="166" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:2" ht="288" x14ac:dyDescent="0.2">
       <c r="A166" s="56" t="s">
         <v>1840</v>
       </c>
-      <c r="B166" s="63" t="s">
+      <c r="B166" s="58" t="s">
         <v>1841</v>
       </c>
     </row>
-    <row r="167" spans="1:2" ht="335" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:2" ht="208" x14ac:dyDescent="0.2">
       <c r="A167" s="56" t="s">
         <v>1842</v>
       </c>
-      <c r="B167" s="63" t="s">
+      <c r="B167" s="58" t="s">
         <v>1843</v>
       </c>
     </row>
@@ -26636,31 +26641,31 @@
       <c r="A168" s="56" t="s">
         <v>1844</v>
       </c>
-      <c r="B168" s="63" t="s">
+      <c r="B168" s="58" t="s">
         <v>1845</v>
       </c>
     </row>
-    <row r="169" spans="1:2" ht="320" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:2" ht="192" x14ac:dyDescent="0.2">
       <c r="A169" s="56" t="s">
         <v>1846</v>
       </c>
-      <c r="B169" s="63" t="s">
+      <c r="B169" s="58" t="s">
         <v>1847</v>
       </c>
     </row>
-    <row r="170" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:2" ht="288" x14ac:dyDescent="0.2">
       <c r="A170" s="56" t="s">
         <v>1848</v>
       </c>
-      <c r="B170" s="63" t="s">
+      <c r="B170" s="58" t="s">
         <v>1849</v>
       </c>
     </row>
-    <row r="171" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:2" ht="350" x14ac:dyDescent="0.2">
       <c r="A171" s="56" t="s">
         <v>1850</v>
       </c>
-      <c r="B171" s="63" t="s">
+      <c r="B171" s="58" t="s">
         <v>1851</v>
       </c>
     </row>
@@ -26668,23 +26673,23 @@
       <c r="A172" s="56" t="s">
         <v>1852</v>
       </c>
-      <c r="B172" s="63" t="s">
+      <c r="B172" s="58" t="s">
         <v>1853</v>
       </c>
     </row>
-    <row r="173" spans="1:2" ht="320" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:2" ht="192" x14ac:dyDescent="0.2">
       <c r="A173" s="56" t="s">
         <v>1854</v>
       </c>
-      <c r="B173" s="63" t="s">
+      <c r="B173" s="58" t="s">
         <v>1855</v>
       </c>
     </row>
-    <row r="174" spans="1:2" ht="176" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:2" ht="128" x14ac:dyDescent="0.2">
       <c r="A174" s="56" t="s">
         <v>1856</v>
       </c>
-      <c r="B174" s="63" t="s">
+      <c r="B174" s="58" t="s">
         <v>1857</v>
       </c>
     </row>
@@ -26692,7 +26697,7 @@
       <c r="A175" s="56" t="s">
         <v>1858</v>
       </c>
-      <c r="B175" s="63" t="s">
+      <c r="B175" s="58" t="s">
         <v>1859</v>
       </c>
     </row>
@@ -26700,7 +26705,7 @@
       <c r="A176" s="56" t="s">
         <v>1860</v>
       </c>
-      <c r="B176" s="63" t="s">
+      <c r="B176" s="58" t="s">
         <v>1861</v>
       </c>
     </row>
@@ -26713,7 +26718,7 @@
       <c r="A178" s="56" t="s">
         <v>1863</v>
       </c>
-      <c r="B178" s="63" t="s">
+      <c r="B178" s="58" t="s">
         <v>1864</v>
       </c>
     </row>
@@ -26721,7 +26726,7 @@
       <c r="A179" s="56" t="s">
         <v>1865</v>
       </c>
-      <c r="B179" s="63" t="s">
+      <c r="B179" s="58" t="s">
         <v>1866</v>
       </c>
     </row>
@@ -26729,7 +26734,7 @@
       <c r="A180" s="56" t="s">
         <v>1867</v>
       </c>
-      <c r="B180" s="63" t="s">
+      <c r="B180" s="58" t="s">
         <v>1868</v>
       </c>
     </row>
@@ -26737,7 +26742,7 @@
       <c r="A181" s="56" t="s">
         <v>1869</v>
       </c>
-      <c r="B181" s="63" t="s">
+      <c r="B181" s="58" t="s">
         <v>1870</v>
       </c>
     </row>
@@ -26745,15 +26750,15 @@
       <c r="A182" s="56" t="s">
         <v>1871</v>
       </c>
-      <c r="B182" s="63" t="s">
+      <c r="B182" s="58" t="s">
         <v>1872</v>
       </c>
     </row>
-    <row r="183" spans="1:2" ht="128" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A183" s="56" t="s">
         <v>1873</v>
       </c>
-      <c r="B183" s="63" t="s">
+      <c r="B183" s="58" t="s">
         <v>1874</v>
       </c>
     </row>
@@ -26761,7 +26766,7 @@
       <c r="A184" s="56" t="s">
         <v>1875</v>
       </c>
-      <c r="B184" s="63" t="s">
+      <c r="B184" s="58" t="s">
         <v>1876</v>
       </c>
     </row>
@@ -26769,23 +26774,23 @@
       <c r="A185" s="56" t="s">
         <v>1877</v>
       </c>
-      <c r="B185" s="63" t="s">
+      <c r="B185" s="58" t="s">
         <v>1878</v>
       </c>
     </row>
-    <row r="186" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A186" s="56" t="s">
         <v>1879</v>
       </c>
-      <c r="B186" s="63" t="s">
+      <c r="B186" s="58" t="s">
         <v>1880</v>
       </c>
     </row>
-    <row r="187" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A187" s="56" t="s">
         <v>1881</v>
       </c>
-      <c r="B187" s="63" t="s">
+      <c r="B187" s="58" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -26793,15 +26798,15 @@
       <c r="A188" s="56" t="s">
         <v>1883</v>
       </c>
-      <c r="B188" s="63" t="s">
+      <c r="B188" s="58" t="s">
         <v>1884</v>
       </c>
     </row>
-    <row r="189" spans="1:2" ht="80" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A189" s="56" t="s">
         <v>1885</v>
       </c>
-      <c r="B189" s="63" t="s">
+      <c r="B189" s="58" t="s">
         <v>1886</v>
       </c>
     </row>
@@ -26809,7 +26814,7 @@
       <c r="A190" s="56" t="s">
         <v>1887</v>
       </c>
-      <c r="B190" s="63" t="s">
+      <c r="B190" s="58" t="s">
         <v>1888</v>
       </c>
     </row>
@@ -26817,7 +26822,7 @@
       <c r="A191" s="56" t="s">
         <v>1889</v>
       </c>
-      <c r="B191" s="63" t="s">
+      <c r="B191" s="58" t="s">
         <v>1890</v>
       </c>
     </row>
@@ -26825,7 +26830,7 @@
       <c r="A192" s="56" t="s">
         <v>1891</v>
       </c>
-      <c r="B192" s="63" t="s">
+      <c r="B192" s="58" t="s">
         <v>1892</v>
       </c>
     </row>
@@ -26833,7 +26838,7 @@
       <c r="A193" s="56" t="s">
         <v>1893</v>
       </c>
-      <c r="B193" s="63" t="s">
+      <c r="B193" s="58" t="s">
         <v>1894</v>
       </c>
     </row>
@@ -26841,7 +26846,7 @@
       <c r="A194" s="56" t="s">
         <v>1895</v>
       </c>
-      <c r="B194" s="63" t="s">
+      <c r="B194" s="58" t="s">
         <v>1896</v>
       </c>
     </row>
@@ -26849,7 +26854,7 @@
       <c r="A195" s="56" t="s">
         <v>1897</v>
       </c>
-      <c r="B195" s="63" t="s">
+      <c r="B195" s="58" t="s">
         <v>1898</v>
       </c>
     </row>
@@ -26857,15 +26862,15 @@
       <c r="A196" s="56" t="s">
         <v>1899</v>
       </c>
-      <c r="B196" s="63" t="s">
+      <c r="B196" s="58" t="s">
         <v>1900</v>
       </c>
     </row>
-    <row r="197" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A197" s="56" t="s">
         <v>1901</v>
       </c>
-      <c r="B197" s="63" t="s">
+      <c r="B197" s="58" t="s">
         <v>1902</v>
       </c>
     </row>
@@ -26873,7 +26878,7 @@
       <c r="A198" s="56" t="s">
         <v>1903</v>
       </c>
-      <c r="B198" s="63" t="s">
+      <c r="B198" s="58" t="s">
         <v>1904</v>
       </c>
     </row>
@@ -26881,7 +26886,7 @@
       <c r="A199" s="56" t="s">
         <v>1905</v>
       </c>
-      <c r="B199" s="63" t="s">
+      <c r="B199" s="58" t="s">
         <v>1906</v>
       </c>
     </row>
@@ -26889,31 +26894,31 @@
       <c r="A200" s="56" t="s">
         <v>1907</v>
       </c>
-      <c r="B200" s="63" t="s">
+      <c r="B200" s="58" t="s">
         <v>1908</v>
       </c>
     </row>
-    <row r="201" spans="1:2" ht="128" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A201" s="56" t="s">
         <v>1909</v>
       </c>
-      <c r="B201" s="63" t="s">
+      <c r="B201" s="58" t="s">
         <v>1910</v>
       </c>
     </row>
-    <row r="202" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:2" ht="380" x14ac:dyDescent="0.2">
       <c r="A202" s="56" t="s">
         <v>1911</v>
       </c>
-      <c r="B202" s="63" t="s">
+      <c r="B202" s="58" t="s">
         <v>1912</v>
       </c>
     </row>
-    <row r="203" spans="1:2" ht="128" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A203" s="56" t="s">
         <v>1913</v>
       </c>
-      <c r="B203" s="63" t="s">
+      <c r="B203" s="58" t="s">
         <v>1914</v>
       </c>
     </row>
@@ -26921,15 +26926,15 @@
       <c r="A204" s="56" t="s">
         <v>1915</v>
       </c>
-      <c r="B204" s="63" t="s">
+      <c r="B204" s="58" t="s">
         <v>1916</v>
       </c>
     </row>
-    <row r="205" spans="1:2" ht="144" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A205" s="56" t="s">
         <v>1917</v>
       </c>
-      <c r="B205" s="63" t="s">
+      <c r="B205" s="58" t="s">
         <v>1918</v>
       </c>
     </row>
@@ -26937,7 +26942,7 @@
       <c r="A206" s="56" t="s">
         <v>1919</v>
       </c>
-      <c r="B206" s="63" t="s">
+      <c r="B206" s="58" t="s">
         <v>1920</v>
       </c>
     </row>
@@ -26945,15 +26950,15 @@
       <c r="A207" s="56" t="s">
         <v>1921</v>
       </c>
-      <c r="B207" s="63" t="s">
+      <c r="B207" s="58" t="s">
         <v>1922</v>
       </c>
     </row>
-    <row r="208" spans="1:2" ht="395" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:2" ht="350" x14ac:dyDescent="0.2">
       <c r="A208" s="56" t="s">
         <v>1923</v>
       </c>
-      <c r="B208" s="63" t="s">
+      <c r="B208" s="58" t="s">
         <v>1924</v>
       </c>
     </row>
@@ -26961,7 +26966,7 @@
       <c r="A209" s="56" t="s">
         <v>1925</v>
       </c>
-      <c r="B209" s="63" t="s">
+      <c r="B209" s="58" t="s">
         <v>1926</v>
       </c>
     </row>
@@ -31127,23 +31132,23 @@
       <c r="A1" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="59" t="s">
         <v>674</v>
       </c>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="59" t="s">
         <v>675</v>
       </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
@@ -31169,86 +31174,86 @@
       <c r="A5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="59" t="s">
         <v>550</v>
       </c>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
       <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
       <c r="E6" s="9"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="63" t="s">
         <v>551</v>
       </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
       <c r="E7" s="9"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="58" t="s">
+      <c r="B8" s="59" t="s">
         <v>552</v>
       </c>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
       <c r="E8" s="9"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="B9" s="58"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
       <c r="E9" s="9"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="B10" s="58" t="s">
+      <c r="B10" s="59" t="s">
         <v>677</v>
       </c>
-      <c r="C10" s="58"/>
-      <c r="D10" s="58"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
       <c r="E10" s="9"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="58" t="s">
+      <c r="B11" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="58"/>
-      <c r="D11" s="58"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
       <c r="E11" s="9"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="57" t="s">
+      <c r="B12" s="62" t="s">
         <v>958</v>
       </c>
-      <c r="C12" s="57"/>
-      <c r="D12" s="57"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
       <c r="E12" s="9"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -31537,11 +31542,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B4:E4"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="B5:D5"/>
@@ -31549,6 +31549,11 @@
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B4:E4"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -34782,14 +34787,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="98eacbea-7562-4a40-a7f2-e999cdc0cec5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="75bf9804-c18d-470a-a27f-eeaf4abcd247" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -35000,27 +35003,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="98eacbea-7562-4a40-a7f2-e999cdc0cec5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="75bf9804-c18d-470a-a27f-eeaf4abcd247" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5AE94761-8578-4804-B593-FBFFCD1EC013}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0D2739C-381D-470B-B6E1-B86FD5C25B2E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="98eacbea-7562-4a40-a7f2-e999cdc0cec5"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="75bf9804-c18d-470a-a27f-eeaf4abcd247"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -35045,9 +35041,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0D2739C-381D-470B-B6E1-B86FD5C25B2E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5AE94761-8578-4804-B593-FBFFCD1EC013}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="98eacbea-7562-4a40-a7f2-e999cdc0cec5"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="75bf9804-c18d-470a-a27f-eeaf4abcd247"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>